--- a/data/hotels_by_city/Dallas/Dallas_shard_397.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_397.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="490">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Dennis G</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>Great staff and hotel. Very accommodating and helpfu. Even though the hotel is new, it's very clean. Spacious rooms and comfortable beds. The continental breakfast had a really good variety of items..More</t>
   </si>
   <si>
+    <t>david792018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r579104574-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>This hotel staff was amazing. They opened breakfast up early for us ever morning so that the crew could get a meal in before we worked. Along with helping us wash are clothes in the back when there was to long of a line to us the washers. Could not be more happy with the hospitality we received. The room were well kept clean while giving a homey atmosphere for us when returning back from the long days. Could not ask for more form this location!More</t>
   </si>
   <si>
+    <t>Jack C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r579064387-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t>A group of us were in town for a weekend of officiating paintball at the TMS right down the road. They catered to our every need to ensure we were comfortable and well suited to do our jobs. 5 of 5 stars! They even allowed us to use their outdoor spicket to wash off some of the excess mud before coming in and using their laundry services to wash our gear every day.More</t>
   </si>
   <si>
+    <t>Gary P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r579049523-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -231,6 +243,9 @@
     <t>Its right across the way from Texas Motor Speedway which we had an event at. So many new spots opening for food and souvenirs. The staff was professional and the hotel was exactly what anyone needs with a big fridge, microwave, lots of table space, and a great working ac. Will plan to stay again in the futureMore</t>
   </si>
   <si>
+    <t>Kader C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r579040485-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -246,6 +261,9 @@
     <t>Great service, all around a great experience. The staff Was friendly The hotel is New, very modern. Would visit again if the opportunity comes. The only down side is that there is no restaurants near.More</t>
   </si>
   <si>
+    <t>Joshua C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r579036615-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -261,6 +279,9 @@
     <t>Stayed here for an event in town. The hotel suited us perfectly. The rooms were very clean and spacious and the staff was excellent and very supportive of anything we needed. The breakfast was great as well, plus it is close to several food options and the convenience store is around the corner.More</t>
   </si>
   <si>
+    <t>Alan L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r579012428-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -279,6 +300,9 @@
     <t>the room was huge compared to other hotels I have stayed in. the room had a small refrigerator,microwave and even a dish washer.you can split the room off as there is a curtain that can be pulled from one side of room to the other. The bath room also big in my opinion. the shower stall is spot on as it has body wash and shampoo dispensers  on the shower wall. Just all around very impressed.The staff went out of their way to help us as in we had a muddy paintball tournament and we where covered in mud. The staff hooked a hose up out side a posted that it was there and we could use this to wash off gear, clothing or what ever. We inquired about a laundry mat to was or gear for the next day and they volunteered to wash it for us. So like i said over and above serviceMore</t>
   </si>
   <si>
+    <t>wlfdesigns</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r578896504-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -300,6 +324,9 @@
     <t>The hotel was clean and comfortable, the staff friendly and helpful. Hotel seems pretty new, nicely decorated.  Pool and gym areas looked clean and well maintained but we didn't use them.  Liked the eco friendly nature of the hotel, with recycling bins and soap/shampoo dispensers in the bathroom.  I selected this hotel due to it's proximity to Texas Motor Speedway - and the breakfast looked tempting.  Wish I could say it was tasty, but breakfast was disappointing.  Their artisan sandwiches were all pre-packaged and had to be microwaved, as were the scrambled egg dishes. Didn't enjoy them at all. The waffles were good and there were plenty of toppings.  Skipped the breakfast our last morning there and went across the street to IHOP.  On the whole, it was a pleasant stay.More</t>
   </si>
   <si>
+    <t>tinaaB5273WT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r578896149-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -318,6 +345,9 @@
     <t>Booked this hotel because it was close to Texas Motor Speedway.  We had our son and his girlfriend with us.  It was roomy, comfy and clean.  Doesn't get much better than that.  The staff was very friendly, fast check-in and checkout.  Knowledgeable about the area. Beds very comfortable, only one night a lady lost Larry.  She was hollering for him in the hallway, maybe she was the one lost?!? or maybe too much celebrating :-) It only last a few minutes so no big deal.  Will definitely stay here again if we are in the area.More</t>
   </si>
   <si>
+    <t>Anthony C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r576094293-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -345,6 +375,9 @@
     <t>The HOME2 suites are a delight. As a person who travels for business and pleasure frequently, I found the amenities, comfort, and value to be wonderful. It's a medium priced ($99-$120) hotel that could charge $125-$150 for the quality of the venue and staff.More</t>
   </si>
   <si>
+    <t>ec00ley</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r574784415-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -390,6 +423,9 @@
     <t>Overall a super clean place that seemed new.  The staff ranged from ok to superb. The breakfast was wide ranging and the attendant was wonderful.  It still is complementary hotel breakfast though so good for a quick start to the day but nothing to write home about.  What more can you expect with such a reasonable rate.  I’d happily stay again and recommend anyone else do the same.  More</t>
   </si>
   <si>
+    <t>joann h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r569142015-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -414,6 +450,9 @@
     <t>This was a beautiful hotel. It has a very nice fire pit, outdoor pool, and barbecue grills.  But the thin walls left us tired every day.  We had to call front desk two nights because the TV was blaring next to us.  We could also hear voices clearly and snoring clearly from the next room.More</t>
   </si>
   <si>
+    <t>Drverni</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r567566239-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -438,6 +477,9 @@
     <t>I showed up not knowing what to expect because I have never stayed in this area previously. The hotel was clean, the staff were generously friendly and the room and gym were nice. I will definitely be returning to this hotel in the very near future. More</t>
   </si>
   <si>
+    <t>MisterJim444</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r566861719-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -462,6 +504,9 @@
     <t>I checked into this new Home2Suites because of its convenient location and I'm so glad I did.  I was greeted with professionalism at the front desk and was extremely pleased with the obvious conscious attention that had been paid to cleaning the room before I checked in and every day during my three-day visit. The other wonderful surprise was morning breakfast.  The on-duty staff person, Tommy, made me feel like I was having morning coffee with a friend.  The food service area was spotless and all the food items were fully stocked.  So whether you are looking for a short-term hotel stay or like some of the other folks I talked to who were extended stay guests add this hotel to your priority list.  You will not be disappointed.More</t>
   </si>
   <si>
+    <t>Nanablack</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r566337059-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -480,6 +525,9 @@
     <t>We love staying at Home 2 Suites the rooms are really nice and enjoy the full kitchen in the rooms..  We also really like the different outdoor patio spaces for meeting up with our friends.  Breakfast is great with lots of options.  More</t>
   </si>
   <si>
+    <t>tdbosse1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r566130000-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -504,6 +552,9 @@
     <t>Great hotel so close to Texas Motor Speedway and the Tanger Outlet Mall. Beds are super comfortable and the room set up is great!  Breakfast is tasty and coffee is awesome. Employees are friendly, room smells great and the sheets are super soft. I would stay here again!More</t>
   </si>
   <si>
+    <t>b2mills</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r565508939-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -522,6 +573,9 @@
     <t>Most comfortable beds and pillows ever. Great nights sleep. Breakfast was good, room and hotel was clean. location was very convenient. We really felt like this was home for us while we were on the road.More</t>
   </si>
   <si>
+    <t>William W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r565357391-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -543,6 +597,9 @@
     <t>Convenient hotel location to restaurants on highway 114 and drive to work location was one exit north.  Very convenient and fairly new construction.  Still had new smell in all parts of the hotel. Some road construction made it difficult during rush hours.More</t>
   </si>
   <si>
+    <t>Kelly W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r565335964-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -558,6 +615,9 @@
     <t>Everything about this hotel was wonderful. The kitchen area in the room has everything you could want. The rooms are spacious, clean and comfortable. Washroom, clean, efficient and new... Outside has a wonderful patio area to unwind by a table top firepit and comfortable chairs .... Overall ... A great place with excellent service and staffMore</t>
   </si>
   <si>
+    <t>TanyaVillegas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r559393731-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -582,6 +642,9 @@
     <t>This place is awesome . I know this place is new but it is well kept by the staff.They are friendly and are on top of their game. Price point was excellent.The rooms are well designed and are fitting. The western omelette is a must try............oh the biscuits and gravy were delicious. Glad we stayed here.The staff went above and beyond to make our stay comfortable.More</t>
   </si>
   <si>
+    <t>lionofjudahDenver</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r555063689-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -609,6 +672,9 @@
     <t>Gave this hotel an average rating because the noise in the adjoining rooms was a bit much. This isn't the hotels fault but the hotel is just an average build so the noise travels. The rooms are pretty narrow giving them a closed in feeling. Many of the breakfast foods are prepackaged. The staff was mostly friendlyMore</t>
   </si>
   <si>
+    <t>tabrobin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r554090043-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -633,6 +699,9 @@
     <t>This was our first time staying at a Home2 and it met and exceeded our expectations! Great stay for a reasonable price! The only downside is that there is not much within walking distance except for a Sonic and gas station. But, overall, a great stay!More</t>
   </si>
   <si>
+    <t>jkau12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r553392333-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -654,6 +723,9 @@
     <t>Was needing a decent hotel for a decent price within a reasonable distance of where I needed to be in the morning (Denton). Was I in luck!! Brand new, beautiful hotel. Clean rooms, beautiful gathering areas, bountiful hot breakfast. Ease of check-in &amp; checkout. I hope to visit again!More</t>
   </si>
   <si>
+    <t>Daphnia B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r551555292-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -681,6 +753,9 @@
     <t>We have learned that Home2 Suites is always a great stay!  It's our first choice any time we travel.  LOVE THEM ALL.  This hotel is new, modern, fab!   Will always stay at the hotel when we visit Southlake/Northlake/Grapevine areas!!More</t>
   </si>
   <si>
+    <t>Melanie W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r549559158-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -705,6 +780,9 @@
     <t>Such a great hotel, excellent location and wonderful Staff.  Lisa has been so informative and helpful.  The rooms are spacious and the beds and pillows are the best!  Stayed long term and will be staying again. More</t>
   </si>
   <si>
+    <t>kqfultoncrna</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r548297899-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -729,6 +807,9 @@
     <t>My son and I stayed for race week.  I had some extra valuables that I did not want to leave in the room.  I placed them in the safe deposit box at the front desk.  A couple of days later when I requested to remove part of the contents, the box was not secured.  I'm talking a second key sticking in the box where anyone walking by the front desk could have entered my supposedly secure box contents. The front desk person acknowledged the lack of security and assured me that my contents were safe.  I promptly removed the contents and had no choice but to store them in my rental car.  I have since emails the general manager, Jeffrey Loudin without reply.  Poor response to a concern that I brought to the front desk attention and management attention.  The stay was otherwise fine but it only takes a situation like his to cause a stressful situation during travel.  I hope this problem has been resolved and that the way my concern was addressed is not typical of the hotel's attitude.  More</t>
   </si>
   <si>
+    <t>548blasg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r547962893-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -753,6 +834,9 @@
     <t>Hotel is well kept. Room was beautiful, very clean, smelled excellent! Was well stocked, had all kinds of amenities and was just an awesome Room!! We were VERY pleased! 2 flat screened Tv's and an excellent bed !  Staff was very friendly,and check in &amp; check out was a breeze !! Highly recommend!! When I'm in Fort Worth, will definitely make it a point to stay here!More</t>
   </si>
   <si>
+    <t>Shamaine L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r546602467-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -777,6 +861,9 @@
     <t>We traveled to Texas with a youth All star football team and stayed for the weekend for a tournament and the hotel was very accommodating. They allowed us to use their meeting rooms and provided breakfast  packages for our boys due to early games. The staff was very friendly and always available to help. We will only use this hotel when we come to Texas More</t>
   </si>
   <si>
+    <t>JRDAS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r546035789-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -795,12 +882,18 @@
     <t>King bed full kitchen with microwave plates cups glasses knifes and silverware walking distance to Mexican restaurant Chinese delivery Texas motor speedway 1.5 away can beat that and price was way lower than holliday in next. Polite staff  Love Texas! More</t>
   </si>
   <si>
+    <t>924caryv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r545383369-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
     <t>545383369</t>
   </si>
   <si>
+    <t>112madalyn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r544431950-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -816,6 +909,9 @@
     <t>An article of clothing was mistakenly left in the room after we checked out.  One week after checkout, it is not in lost and found. I can only conclude it has been stolen.  The hotel management has a very nonchalant attitude about my situation.</t>
   </si>
   <si>
+    <t>melissagW7812WH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r543463647-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -840,6 +936,9 @@
     <t>This place was amazing. I couldn't believe a place like this wa so reasonably priced.  We had a room with 2 queen beds. Both were so comfortable, I'm trying to find out what kind of bed it is to purchase one for myself! The digital key option is great. The breakfast options are pretty great. Wish they had more hot breakfast items, but it's understandle as to why they don't. More</t>
   </si>
   <si>
+    <t>Nikki C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r543255875-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -864,6 +963,9 @@
     <t>This is a pet friendly hotel and being the owner of four dogs myself I have no problem with this. However, we were woke up by the dog in the room next to ours knocking things around in the room followed by 3” minutes of barking and howling. Apparently the owner left the dog and went down to breakfast with no concerns did those staying around them. I informed the assistant manager while we were checking out and she basically had an “oh well” attitude. There is a sign in the lobby that states if you aren’t satisfied with your stay it’s on us. I would think that having that as a policy, she would have been a little more concerned with my complaint. We are Hilton Honors members and decided to give this Home2Suites a try since we had not yet stayed at one of these in the chain. The rooms were great, but the lack of concern about our stay was disappointing. Had they told us at check in that the room next to us was traveling with a pet, we would have asked for another room assignment as there were other available rooms.  More</t>
   </si>
   <si>
+    <t>Satyanarayana A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r542790880-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -888,6 +990,9 @@
     <t>Stayed twice 4 nights each time... Excellent room condition and service. Staff is always helpful and greets well. I will choose this hotel again. Only problem seen here is there are not much restaurants near by.More</t>
   </si>
   <si>
+    <t>daisy20784</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r538246254-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -915,6 +1020,9 @@
     <t>This was a wonderful place to stay.  Clean, cheerful,  safe and friendly. I will certainly stay here again.  Oh, and the price was great for this area of Fort Worth Texas.  Also pet and handicapped friendly. More</t>
   </si>
   <si>
+    <t>survivor5804</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r537756961-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -936,6 +1044,9 @@
     <t>Clean. New. Modern. Free breakfast. Free fruit infused water. Just awesome. Professional staff, friendly, and helpful. Swimming pool, hot tub, gym. Just stay here. Most comfortable beds in the industry.  The sheets feel like silk. Loved it here! More</t>
   </si>
   <si>
+    <t>O340LWandreav</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r537785965-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -948,6 +1059,9 @@
     <t>We got told that we would have certain rooms at a certain price and they did not happen at check in. They completely messed up all of my wedding party reservations. When I asked to speak with a manager, I got the run around and never was able to speak with a manager. All the stress of finding a place for my relatives to stay was not needed. They reserved their rooms but got booted out for an air show I believe. This experience shouldn't have been as difficult as it was with all the added the stress.</t>
   </si>
   <si>
+    <t>W292NPheatherj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r536081607-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -972,6 +1086,9 @@
     <t>Stayed in a king suite and it was very spacious and clean. The bed was very comfortable and the shower was nice and hot. They do not have the little bottles of shampoo/conditioner/body wash, but rather dispensers in the shower for shampoo and body wash (no conditioner). Pet deposit is expensive.More</t>
   </si>
   <si>
+    <t>desiraw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r535655698-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -990,6 +1107,9 @@
     <t>I would recommend this hotel to everyone!!  The staff i s friendly and willing to accommodate your every need!!  They strive to make your stay feel like you are at home.  Great location!!  Close to Hwy 35 and Tanger Outlet Mall!More</t>
   </si>
   <si>
+    <t>Sue M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r534452556-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -1014,6 +1134,9 @@
     <t>While searching for hotels near Texas Motor Speedway, I noticed a brand new hotel in close proximity.  Our room was excellent, very clean with comfortable beds, pillows, great amenities, and a very  nice, above average kitchen area.  We thoroughly enjoyed our breakfast each morning, with consisted of many choices.  We encountered a small parking problem with a car blocking our trailer exit, which prevented us from unloading our classic car to be driven to the GoodGuys car show event, but this was no fault of the hotel.  The car had parked in a no-parking fire lane.  We made reservations for our next trip to TMS, and will also reserve for a following event.  We stayed three nights and were given a discount for the second and third nights. We highly recommend this hotel.More</t>
   </si>
   <si>
+    <t>chrisbU2183VP</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r532510438-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -1038,6 +1161,9 @@
     <t>We chose this hotel for being a Hilton, being new (about 5 weeks old at the time of our stay) and being so close to Texas Motor Speedway.  Hotel is in mint condition, our room was clean and quiet and we did not have any issues.  My wife misses having a bathtub in the room but we recommend this hotel to anyone seeking a stay in this area and we will definitely return when we need a place to stay in this area.  We had two guests with us and they enjoyed the hotel as well.More</t>
   </si>
   <si>
+    <t>Raygee67</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r532203317-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -1056,6 +1182,9 @@
     <t>Self described "Eco Friendly" hotel located across the highway of the Texas Motor Speedway.  Nice contemporary designed suites with a load of home comforts. Daily "light"room cleaning is conducted by request with heavy cleaning completed every five days of your stay. Breakfast  buffet includes pre-made and microwavable omelets, biscuits and such. On sight laundromat is a nice touch. An attentive staff made for an enjoyable stay. Highly recommended.More</t>
   </si>
   <si>
+    <t>Deneese M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r531849889-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -1077,6 +1206,9 @@
     <t>The facility is awesome!  If we come back to the area we will definitely stay here again!  The room was very clean, and extremely comfortable!!  It is pet friendly, and that is wonderful!  The price was very affordable!More</t>
   </si>
   <si>
+    <t>jennipherv2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r529777026-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -1104,6 +1236,9 @@
     <t>I was in between apartment leases and needed a hotel close to work in the 30 day interim. I was very pleased with the hotel itself and the staff. The area is being built up, so there aren't a lot of dining choices around. Parking was only an issue one night, but that was due to a classic car convention that a lot of people had on trailers, double-parking. The gym is clean and has useful equipment.More</t>
   </si>
   <si>
+    <t>Cly M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r529776822-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -1119,6 +1254,9 @@
     <t>Stayed here for a car show event at the race track.  The room rates were literally 1/2 of the surrounding nice hotels.  Brand new, kept very clean, small kitchenettes with large fridge, not a "dorm" fridge.  Could definitely work for an extended stay.  Staff was very friendly and accommodating.  Breakfast just "so-so". One thing to note, if you want your room cleaned and bed made on the weekend, you have to ask.  Part of the "green" philosophy.  We asked and they delivered.More</t>
   </si>
   <si>
+    <t>Elaine C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r528882242-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -1143,6 +1281,9 @@
     <t>Great location to our event at the race track, The highway to cross is extremely hazardous.  Rooms very clean, Lobby is modern and impressive &amp; Staff very friendly &amp; helpful.  My new favorite hotel chain. I plan to travel in the future with my family and I will be looking for Home2Suites in that area.More</t>
   </si>
   <si>
+    <t>davidaZ2502ZM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r528319593-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -1167,6 +1308,9 @@
     <t>Good hotel overall.  Bad layout design of rooms- it is a shotgun-style room, with curtains to make "rooms".   And no tubs, you get a shower only.  There was a Helpful staff member man during breakfast that made the breakfast better.More</t>
   </si>
   <si>
+    <t>Chris M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r527431449-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -1185,6 +1329,9 @@
     <t>Definitely a very positive experience. The amenities are terrific. Very friendly and helpful stay. The room was excellent!  KUDO's to the team!  Looking forward to my next stay. Room was very nicely appointed. More</t>
   </si>
   <si>
+    <t>Travis N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r525538106-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -1209,6 +1356,9 @@
     <t>Great staff, clean rooms, good value!  We stayed for 4 weeks and got to know the staff as friends.  There aren't a lot of options in this area, this is the best!  The pool was maintained often and the breakfast was greatMore</t>
   </si>
   <si>
+    <t>derekg30</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r524268067-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -1233,6 +1383,9 @@
     <t>This was the 2nd time I have stayed at this property. Both times the hotel is very clean and in great shape. The staff is very friendly and helpful. This time the front desk attendant saw me watching the Cowboys game and caught me up on things I had missed during my travel.More</t>
   </si>
   <si>
+    <t>T5188FLrobertb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r523933359-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -1257,6 +1410,9 @@
     <t>Very nice hotel, great location.  Reasonably priced for what there is as far as amenities.  New and fresh hotel.  Similar to Hampton Inn but upgraded.  I'd definitely stay again when in this area again.  Should be perfect for Texas Speedway patrons and the new outlet center.More</t>
   </si>
   <si>
+    <t>J5789ULmanuelt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r522014359-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -1278,6 +1434,9 @@
     <t>Coking in from work and staff was great very professional and friendly, ask great questions to make my stay great, will stay there again and again. Breakfast was great and healthy food selection was nice attendant keep everything looking goodMore</t>
   </si>
   <si>
+    <t>faithfulJ2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r520541101-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -1300,6 +1459,9 @@
   </si>
   <si>
     <t>We stayed here for three nights in August 2017.  We didn't realize they had only been open 5 days when we stayed there.  There was still some minor construction going on around the hotel, but overall it wasn't anything bothersome.  The staff was fantastic and treated us like family.  Linda at the front desk was amazing!  Also want to mention Jim and Tommy.  There are others whose names I don't remember but they were all very professional and kind.  I highly recommend staying there if you're in the area.  Full sized refrigerators in the rooms and you can use an induction hot plate to cook!  This location also has an awesome outdoor firepit counter-height table and a nice area to grill.  I would certainly stay there again.More</t>
+  </si>
+  <si>
+    <t>bdaparteira</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d12473661-r519140711-Home2_Suites_by_Hilton_Fort_Worth_Northlake-Northlake_Texas.html</t>
@@ -1828,43 +1990,47 @@
       <c r="A2" t="n">
         <v>66194</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>35012</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1876,56 +2042,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>66194</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>156698</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1937,56 +2107,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>66194</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>2812</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1998,56 +2172,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>66194</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>30161</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2059,56 +2237,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>66194</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>156699</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2120,56 +2302,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>66194</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>68799</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2185,56 +2371,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>66194</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>43109</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -2252,56 +2442,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>66194</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>156700</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -2323,56 +2517,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>66194</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>156701</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="J10" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="K10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -2394,56 +2592,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>66194</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>6239</v>
+      </c>
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>115</v>
+      </c>
+      <c r="O11" t="s">
         <v>100</v>
-      </c>
-      <c r="G11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" t="s">
-        <v>101</v>
-      </c>
-      <c r="J11" t="s">
-        <v>102</v>
-      </c>
-      <c r="K11" t="s">
-        <v>103</v>
-      </c>
-      <c r="L11" t="s">
-        <v>104</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>105</v>
-      </c>
-      <c r="O11" t="s">
-        <v>92</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2465,56 +2667,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="X11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="Y11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>66194</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>156702</v>
+      </c>
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="J12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="K12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="L12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="O12" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2536,13 +2742,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="X12" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="Y12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
@@ -2555,37 +2761,37 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J13" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="O13" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -2607,56 +2813,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="X13" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="Y13" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>66194</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>156703</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="J14" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="K14" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="O14" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -2678,56 +2888,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="X14" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="Y14" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>66194</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>156704</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="J15" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="O15" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2749,56 +2963,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="X15" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="Y15" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>66194</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>156705</v>
+      </c>
+      <c r="C16" t="s">
+        <v>153</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="J16" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="K16" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2814,56 +3032,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="X16" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="Y16" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>66194</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>156706</v>
+      </c>
+      <c r="C17" t="s">
+        <v>162</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="J17" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="K17" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="L17" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="O17" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2885,56 +3107,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="X17" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="Y17" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>66194</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>156707</v>
+      </c>
+      <c r="C18" t="s">
+        <v>169</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="J18" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="K18" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="L18" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="O18" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2946,56 +3172,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="X18" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="Y18" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>66194</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>156708</v>
+      </c>
+      <c r="C19" t="s">
+        <v>178</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="J19" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="K19" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="L19" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="O19" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -3017,56 +3247,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="X19" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="Y19" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>66194</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>333</v>
+      </c>
+      <c r="C20" t="s">
+        <v>185</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="J20" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="K20" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="L20" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -3088,56 +3322,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="X20" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="Y20" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>66194</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>15030</v>
+      </c>
+      <c r="C21" t="s">
+        <v>193</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="J21" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="K21" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="L21" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -3159,56 +3397,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="X21" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="Y21" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>66194</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>156709</v>
+      </c>
+      <c r="C22" t="s">
+        <v>199</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="J22" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="K22" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="L22" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="O22" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3226,56 +3468,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="X22" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="Y22" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>66194</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>156710</v>
+      </c>
+      <c r="C23" t="s">
+        <v>208</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="J23" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="K23" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="L23" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
@@ -3297,56 +3543,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="X23" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="Y23" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>66194</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>156711</v>
+      </c>
+      <c r="C24" t="s">
+        <v>218</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="J24" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="K24" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="L24" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="O24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3368,56 +3618,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="X24" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="Y24" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>66194</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>156712</v>
+      </c>
+      <c r="C25" t="s">
+        <v>227</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="J25" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="K25" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="L25" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="O25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3429,56 +3683,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="X25" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="Y25" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>66194</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>156713</v>
+      </c>
+      <c r="C26" t="s">
+        <v>235</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="J26" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="K26" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="L26" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="O26" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3500,56 +3758,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="X26" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="Y26" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>66194</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>536</v>
+      </c>
+      <c r="C27" t="s">
+        <v>245</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="J27" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="K27" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="L27" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3571,56 +3833,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="X27" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="Y27" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>66194</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>156714</v>
+      </c>
+      <c r="C28" t="s">
+        <v>254</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="J28" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="K28" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="L28" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="O28" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3632,56 +3898,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="X28" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="Y28" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>66194</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>156715</v>
+      </c>
+      <c r="C29" t="s">
+        <v>263</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="J29" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="K29" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="L29" t="s">
+        <v>268</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
         <v>241</v>
       </c>
-      <c r="M29" t="n">
-        <v>5</v>
-      </c>
-      <c r="N29" t="s">
-        <v>217</v>
-      </c>
       <c r="O29" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3703,56 +3973,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="X29" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="Y29" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>66194</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>156716</v>
+      </c>
+      <c r="C30" t="s">
+        <v>272</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="J30" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="K30" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="L30" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="O30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3774,56 +4048,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="X30" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="Y30" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>66194</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>156717</v>
+      </c>
+      <c r="C31" t="s">
+        <v>281</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="J31" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="K31" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="L31" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="O31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3835,38 +4113,42 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="X31" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="Y31" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>66194</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>156718</v>
+      </c>
+      <c r="C32" t="s">
+        <v>288</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="J32" t="s"/>
       <c r="K32" t="s"/>
@@ -3883,51 +4165,52 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
-      <c r="Y32" t="s"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>66194</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>156719</v>
+      </c>
+      <c r="C33" t="s">
+        <v>291</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="J33" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="K33" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="L33" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="O33" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="P33" t="n">
         <v>2</v>
@@ -3951,50 +4234,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>66194</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>156720</v>
+      </c>
+      <c r="C34" t="s">
+        <v>297</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="J34" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="K34" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="L34" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="O34" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -4016,56 +4303,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="X34" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="Y34" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>66194</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>156721</v>
+      </c>
+      <c r="C35" t="s">
+        <v>306</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="J35" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="K35" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="L35" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="O35" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4087,56 +4378,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="X35" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="Y35" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>66194</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>156722</v>
+      </c>
+      <c r="C36" t="s">
+        <v>315</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="J36" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="K36" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="L36" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="O36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4158,56 +4453,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="X36" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="Y36" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>66194</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>156723</v>
+      </c>
+      <c r="C37" t="s">
+        <v>324</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="J37" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="K37" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="L37" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="O37" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4229,56 +4528,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="X37" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="Y37" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>66194</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>156724</v>
+      </c>
+      <c r="C38" t="s">
+        <v>334</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="J38" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="K38" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="L38" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="O38" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4290,56 +4593,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="X38" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="Y38" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>66194</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>156725</v>
+      </c>
+      <c r="C39" t="s">
+        <v>342</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="J39" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="K39" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="L39" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="O39" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="P39" t="n">
         <v>2</v>
@@ -4363,50 +4670,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>66194</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>156726</v>
+      </c>
+      <c r="C40" t="s">
+        <v>347</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="J40" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="K40" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="L40" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="O40" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="P40" t="n">
         <v>3</v>
@@ -4428,56 +4739,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="X40" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="Y40" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>66194</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>156727</v>
+      </c>
+      <c r="C41" t="s">
+        <v>356</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="J41" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="K41" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="L41" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="O41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4499,56 +4814,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="X41" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="Y41" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>66194</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>1192</v>
+      </c>
+      <c r="C42" t="s">
+        <v>363</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="J42" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="K42" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="L42" t="s">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="O42" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4564,56 +4883,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="X42" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="Y42" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>66194</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>156728</v>
+      </c>
+      <c r="C43" t="s">
+        <v>372</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="J43" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="K43" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="L43" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="O43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4635,56 +4958,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="X43" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="Y43" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>66194</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>156729</v>
+      </c>
+      <c r="C44" t="s">
+        <v>381</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
+        <v>382</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>383</v>
+      </c>
+      <c r="J44" t="s">
+        <v>384</v>
+      </c>
+      <c r="K44" t="s">
+        <v>385</v>
+      </c>
+      <c r="L44" t="s">
+        <v>386</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
         <v>340</v>
       </c>
-      <c r="G44" t="s">
-        <v>45</v>
-      </c>
-      <c r="H44" t="s">
-        <v>46</v>
-      </c>
-      <c r="I44" t="s">
-        <v>341</v>
-      </c>
-      <c r="J44" t="s">
-        <v>342</v>
-      </c>
-      <c r="K44" t="s">
-        <v>343</v>
-      </c>
-      <c r="L44" t="s">
-        <v>344</v>
-      </c>
-      <c r="M44" t="n">
-        <v>5</v>
-      </c>
-      <c r="N44" t="s">
-        <v>304</v>
-      </c>
       <c r="O44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4702,56 +5029,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="X44" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="Y44" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>66194</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>156730</v>
+      </c>
+      <c r="C45" t="s">
+        <v>388</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="J45" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="K45" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="L45" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="O45" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4773,56 +5104,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="X45" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="Y45" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>66194</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>156731</v>
+      </c>
+      <c r="C46" t="s">
+        <v>396</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="J46" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="K46" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="L46" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="O46" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -4844,56 +5179,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="X46" t="s">
-        <v>360</v>
+        <v>404</v>
       </c>
       <c r="Y46" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>66194</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>156732</v>
+      </c>
+      <c r="C47" t="s">
+        <v>406</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="J47" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="K47" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
       <c r="L47" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="O47" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -4915,56 +5254,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="X47" t="s">
-        <v>360</v>
+        <v>404</v>
       </c>
       <c r="Y47" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>66194</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>156733</v>
+      </c>
+      <c r="C48" t="s">
+        <v>412</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>367</v>
+        <v>413</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>368</v>
+        <v>414</v>
       </c>
       <c r="J48" t="s">
-        <v>369</v>
+        <v>415</v>
       </c>
       <c r="K48" t="s">
-        <v>370</v>
+        <v>416</v>
       </c>
       <c r="L48" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="O48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -4986,56 +5329,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="X48" t="s">
-        <v>373</v>
+        <v>419</v>
       </c>
       <c r="Y48" t="s">
-        <v>374</v>
+        <v>420</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>66194</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>156734</v>
+      </c>
+      <c r="C49" t="s">
+        <v>421</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>375</v>
+        <v>422</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
       <c r="J49" t="s">
-        <v>377</v>
+        <v>424</v>
       </c>
       <c r="K49" t="s">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="L49" t="s">
-        <v>379</v>
+        <v>426</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="O49" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -5057,56 +5404,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>380</v>
+        <v>427</v>
       </c>
       <c r="X49" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="Y49" t="s">
-        <v>382</v>
+        <v>429</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>66194</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>578</v>
+      </c>
+      <c r="C50" t="s">
+        <v>430</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>384</v>
+        <v>432</v>
       </c>
       <c r="J50" t="s">
-        <v>385</v>
+        <v>433</v>
       </c>
       <c r="K50" t="s">
-        <v>386</v>
+        <v>434</v>
       </c>
       <c r="L50" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="O50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5118,56 +5469,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>380</v>
+        <v>427</v>
       </c>
       <c r="X50" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="Y50" t="s">
-        <v>388</v>
+        <v>436</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>66194</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>156735</v>
+      </c>
+      <c r="C51" t="s">
+        <v>437</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="J51" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="K51" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="L51" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="O51" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5189,56 +5544,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
       <c r="X51" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="Y51" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>66194</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>156736</v>
+      </c>
+      <c r="C52" t="s">
+        <v>446</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>397</v>
+        <v>447</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>398</v>
+        <v>448</v>
       </c>
       <c r="J52" t="s">
-        <v>399</v>
+        <v>449</v>
       </c>
       <c r="K52" t="s">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L52" t="s">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="O52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5260,56 +5619,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>402</v>
+        <v>452</v>
       </c>
       <c r="X52" t="s">
-        <v>403</v>
+        <v>453</v>
       </c>
       <c r="Y52" t="s">
-        <v>404</v>
+        <v>454</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>66194</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>156737</v>
+      </c>
+      <c r="C53" t="s">
+        <v>455</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>405</v>
+        <v>456</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>406</v>
+        <v>457</v>
       </c>
       <c r="J53" t="s">
-        <v>407</v>
+        <v>458</v>
       </c>
       <c r="K53" t="s">
-        <v>408</v>
+        <v>459</v>
       </c>
       <c r="L53" t="s">
-        <v>409</v>
+        <v>460</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="O53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -5331,56 +5694,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="X53" t="s">
-        <v>411</v>
+        <v>462</v>
       </c>
       <c r="Y53" t="s">
-        <v>412</v>
+        <v>463</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>66194</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>156738</v>
+      </c>
+      <c r="C54" t="s">
+        <v>464</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>414</v>
+        <v>466</v>
       </c>
       <c r="J54" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="K54" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
       <c r="L54" t="s">
-        <v>417</v>
+        <v>469</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>418</v>
+        <v>470</v>
       </c>
       <c r="O54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -5392,56 +5759,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="X54" t="s">
-        <v>411</v>
+        <v>462</v>
       </c>
       <c r="Y54" t="s">
-        <v>419</v>
+        <v>471</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>66194</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>156739</v>
+      </c>
+      <c r="C55" t="s">
+        <v>472</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>421</v>
+        <v>474</v>
       </c>
       <c r="J55" t="s">
-        <v>422</v>
+        <v>475</v>
       </c>
       <c r="K55" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
       <c r="L55" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>418</v>
+        <v>470</v>
       </c>
       <c r="O55" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5457,56 +5828,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>425</v>
+        <v>478</v>
       </c>
       <c r="X55" t="s">
-        <v>426</v>
+        <v>479</v>
       </c>
       <c r="Y55" t="s">
-        <v>427</v>
+        <v>480</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>66194</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>156740</v>
+      </c>
+      <c r="C56" t="s">
+        <v>481</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
       <c r="J56" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="K56" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
       <c r="L56" t="s">
-        <v>432</v>
+        <v>486</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>418</v>
+        <v>470</v>
       </c>
       <c r="O56" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="n">
@@ -5524,13 +5899,13 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="X56" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
       <c r="Y56" t="s">
-        <v>435</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
